--- a/biology/Zoologie/Bongare_indien/Bongare_indien.xlsx
+++ b/biology/Zoologie/Bongare_indien/Bongare_indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bungarus caeruleus
-Bungarus caeruleus, le Bongare indien, est une espèce de serpents de la famille des Elapidae[1].
+Bungarus caeruleus, le Bongare indien, est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, au Pakistan, en Inde, au Sri Lanka, au Bangladesh et au Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, au Pakistan, en Inde, au Sri Lanka, au Bangladesh et au Népal.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un adulte mesure environ 90 centimètres avec un longueur maximale de 1,5 mètre.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'autres serpents, de lézards, de grenouilles, de souris et d'insectes.
 </t>
@@ -605,7 +623,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si sa morsure est relativement indolore, le venin de ce serpent provoque la mort d'un homme en deux ou trois heures. C'est un des serpents les plus venimeux du sous-continent indien. Il est actif plutôt pendant la nuit mais, si on le dérange, peut mordre le jour. Il vit dans les forêts, les champs et près des maisons.
 Il fait partie des Big Four, le classement des quatre serpents les plus dangereux d'Inde avec le cobra à lunettes, la vipère de Russell et l'échide carénée. Il possède un venin neurotoxique
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schneider, 1801 : Historiae Amphibiorum naturalis et literariae. Fasciculus secundus continens Crocodilos, Scincos, Chamaesauras, Boas. Pseudoboas, Elapes, Angues. Amphisbaenas et Caecilias. Frommani, Jena, p. 1-374 (texte intégral).</t>
         </is>
